--- a/TestesBI.xlsx
+++ b/TestesBI.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Receitas-2022" sheetId="2" r:id="rId1"/>
-    <sheet name="Despesas-2022" sheetId="1" r:id="rId2"/>
-    <sheet name="MotoPeças-2022" sheetId="3" r:id="rId3"/>
-    <sheet name="MotoSeviços-2022" sheetId="5" r:id="rId4"/>
+    <sheet name="Despesas-2022" sheetId="1" r:id="rId1"/>
+    <sheet name="MotoPeças-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="MotoSeviços-2022" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
   <si>
     <t>Despesas</t>
   </si>
@@ -617,6 +616,93 @@
   </si>
   <si>
     <t>Frange Bomba Combustível</t>
+  </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>Liquidificador Mondial</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Mecanismo ltd11</t>
+  </si>
+  <si>
+    <t>Limpeza Colchão</t>
+  </si>
+  <si>
+    <t>Insc PC AM INVES+ESCRIV</t>
+  </si>
+  <si>
+    <t>Insc PP-PE</t>
+  </si>
+  <si>
+    <t>Maquina cortar cabelo</t>
+  </si>
+  <si>
+    <t>CellBKP Small</t>
+  </si>
+  <si>
+    <t>Insc Cam Jaboatão</t>
+  </si>
+  <si>
+    <t>Furadeira</t>
+  </si>
+  <si>
+    <t>Soprador término</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Postagem WD 2TB</t>
+  </si>
+  <si>
+    <t>SSD 480gb</t>
+  </si>
+  <si>
+    <t>Insc PP-DF</t>
+  </si>
+  <si>
+    <t>Carregador Tubo 3un</t>
+  </si>
+  <si>
+    <t>Card 128gb 2un</t>
+  </si>
+  <si>
+    <t>Velas filtro barro 12un</t>
+  </si>
+  <si>
+    <t>Panela Pressão Elétrica</t>
+  </si>
+  <si>
+    <t>Capa Muchila Impermeável 3un</t>
+  </si>
+  <si>
+    <t>Removedor de esmalte acetona</t>
+  </si>
+  <si>
+    <t>Insc PC-BA</t>
+  </si>
+  <si>
+    <t>Insc PC-RR</t>
+  </si>
+  <si>
+    <t>Panela Eletrica 3.5L</t>
+  </si>
+  <si>
+    <t>Insc Politec-AL Analista</t>
+  </si>
+  <si>
+    <t>Insc Politec-AL Auxiliar</t>
+  </si>
+  <si>
+    <t>Cola cano 2un</t>
+  </si>
+  <si>
+    <t>Eken Usada</t>
   </si>
 </sst>
 </file>
@@ -625,9 +711,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,14 +730,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -685,12 +763,18 @@
       <name val="Hind"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -706,22 +790,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1024,170 +1107,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2095.64</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>95.71</v>
-      </c>
-      <c r="C3" s="3">
-        <v>95.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>81.63</v>
-      </c>
-      <c r="E3" s="3">
-        <v>68.38</v>
-      </c>
-      <c r="F3" s="3">
-        <v>71.48</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>573.24</v>
-      </c>
-      <c r="C4" s="3">
-        <v>773.04</v>
-      </c>
-      <c r="D4" s="3">
-        <v>858.94</v>
-      </c>
-      <c r="E4" s="3">
-        <v>232.08</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1698.03</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1196,26 +1126,26 @@
     <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1239,319 +1169,658 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
       <c r="C2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
       <c r="D2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
       <c r="E2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
       <c r="F2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
       <c r="G2" s="3">
-        <v>200</v>
+        <v>2095.64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>455.84</v>
+        <v>95.71</v>
       </c>
       <c r="C3" s="3">
-        <v>517.77</v>
+        <v>95.5</v>
       </c>
       <c r="D3" s="3">
-        <v>541.19000000000005</v>
+        <v>81.63</v>
       </c>
       <c r="E3" s="3">
-        <v>610.39</v>
+        <v>68.38</v>
       </c>
       <c r="F3" s="3">
-        <v>467.02</v>
-      </c>
-      <c r="G3" s="3">
-        <v>766.37</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>25.3</v>
+        <v>573.24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>773.04</v>
       </c>
       <c r="D4" s="3">
-        <v>172.33</v>
+        <v>858.94</v>
+      </c>
+      <c r="E4" s="3">
+        <v>232.08</v>
       </c>
       <c r="F4" s="3">
-        <v>54.66</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>35.4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.67</v>
-      </c>
-      <c r="G5" s="3">
-        <v>24.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>108.32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7.49</v>
-      </c>
-      <c r="E6" s="3">
-        <v>28.63</v>
-      </c>
-      <c r="G6" s="3">
-        <v>40</v>
+        <v>1698.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>331.55</v>
+        <v>200</v>
+      </c>
+      <c r="C7" s="3">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>455.84</v>
+      </c>
+      <c r="C8" s="3">
+        <v>517.77</v>
       </c>
       <c r="D8" s="3">
-        <v>39</v>
+        <v>541.19000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>610.39</v>
+      </c>
+      <c r="F8" s="3">
+        <v>467.02</v>
+      </c>
+      <c r="G8" s="3">
+        <v>766.37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>172.33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>54.66</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.58</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.67</v>
+      </c>
+      <c r="G10" s="3">
+        <v>24.86</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
-        <v>82.04</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>103.42</v>
+        <v>108.32</v>
       </c>
       <c r="D11" s="3">
-        <v>111.22</v>
+        <v>7.49</v>
       </c>
       <c r="E11" s="3">
-        <v>98.63</v>
-      </c>
-      <c r="F11" s="3">
-        <v>58.2</v>
+        <v>28.63</v>
       </c>
       <c r="G11" s="3">
-        <v>135.32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>42.91</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>21.93</v>
-      </c>
-      <c r="E12" s="3">
-        <v>23.68</v>
-      </c>
-      <c r="F12" s="3">
-        <v>41.64</v>
+        <v>331.55</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>828.63</v>
-      </c>
-      <c r="C15" s="3">
-        <v>171.8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>973.25</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
+      <c r="A15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>82.04</v>
+      </c>
+      <c r="C16" s="3">
+        <v>103.42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>111.22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>98.63</v>
+      </c>
+      <c r="F16" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>135.32</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="3">
-        <v>150.93</v>
+        <v>42.91</v>
       </c>
       <c r="C17" s="3">
-        <v>178.53</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D17" s="3">
-        <v>82.87</v>
+        <v>21.93</v>
       </c>
       <c r="E17" s="3">
-        <v>154.25</v>
+        <v>23.68</v>
       </c>
       <c r="F17" s="3">
-        <v>81.569999999999993</v>
+        <v>41.64</v>
+      </c>
+      <c r="G17" s="3">
+        <v>26.63</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <v>208.91</v>
-      </c>
-      <c r="C18" s="3">
-        <v>189.08</v>
-      </c>
-      <c r="D18" s="3">
-        <v>172.33</v>
-      </c>
-      <c r="E18" s="3">
-        <v>195.34</v>
-      </c>
-      <c r="F18" s="3">
-        <v>184.85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <v>34</v>
-      </c>
-      <c r="F19" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>34</v>
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>828.63</v>
       </c>
       <c r="C20" s="3">
-        <v>1426.38</v>
+        <v>171.8</v>
       </c>
       <c r="D20" s="3">
-        <v>1331.65</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1021.33</v>
+        <v>973.25</v>
       </c>
       <c r="F20" s="3">
-        <v>2049.3200000000002</v>
-      </c>
-      <c r="G20" s="3">
-        <v>882.93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3">
-        <v>484.12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>38</v>
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
+        <v>150.93</v>
+      </c>
+      <c r="C22" s="3">
+        <v>178.53</v>
+      </c>
+      <c r="D22" s="3">
+        <v>82.87</v>
+      </c>
+      <c r="E22" s="3">
+        <v>154.25</v>
+      </c>
+      <c r="F22" s="3">
+        <v>81.569999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
+        <v>208.91</v>
+      </c>
+      <c r="C23" s="3">
+        <v>189.08</v>
+      </c>
+      <c r="D23" s="3">
+        <v>172.33</v>
+      </c>
+      <c r="E23" s="3">
+        <v>195.34</v>
+      </c>
+      <c r="F23" s="3">
+        <v>184.85</v>
+      </c>
+      <c r="G23" s="3">
+        <v>191.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1426.38</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1331.65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1021.33</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2049.3200000000002</v>
+      </c>
+      <c r="G25" s="3">
+        <v>882.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="3">
+        <v>198.45</v>
+      </c>
+      <c r="D26" s="3">
+        <v>91.29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="3">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3">
+        <v>484.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3">
-        <v>228.68</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1954.68</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1544.37</v>
-      </c>
-      <c r="E23" s="3">
-        <v>540.97</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B30" s="3">
+        <v>78.78</v>
+      </c>
+      <c r="D30" s="3">
+        <v>227.19</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="3">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="3">
+        <v>296.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>535.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="3">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="3">
+        <v>174.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="3">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="3">
         <v>175</v>
       </c>
-      <c r="G23" s="3">
-        <v>2087.92</v>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="3">
+        <v>399.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="3">
+        <v>237.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="3">
+        <v>179.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="3">
+        <v>524.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" s="3">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="3">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
@@ -1651,7 +1920,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1703,7 +1972,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D12" s="3">
@@ -1711,37 +1980,37 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="3">
@@ -1749,22 +2018,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="3">
@@ -1772,47 +2041,47 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B32" s="3">
@@ -1828,7 +2097,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="3">
@@ -1836,37 +2105,37 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D41" s="3">
@@ -1874,22 +2143,22 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1899,17 +2168,17 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1922,7 +2191,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C51" s="3">
@@ -1930,83 +2199,83 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>105.73</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>321.83999999999997</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>328.06</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9">
+      <c r="B55" s="8"/>
+      <c r="C55" s="7">
         <v>64.900000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>98.59</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>13.9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="7">
         <v>221.06</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>199</v>
       </c>
       <c r="G61" s="3">
@@ -2018,7 +2287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
@@ -2032,7 +2301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2073,532 +2342,532 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
